--- a/graphs/dummy_data.xlsx
+++ b/graphs/dummy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billb\Desktop\Github\RPA-G4-2023\graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\UiPath\RPA-G4-2023\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2400DCAA-BFDC-49B3-8909-B3318238D79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DC561-0C28-4A96-9846-0C54ADCA510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1845" windowWidth="21600" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="277" windowWidth="21795" windowHeight="12406" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -106,12 +106,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -130,6 +130,216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Budget </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E609-4AF1-BD26-2C7F5E2BDE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="587459519"/>
+        <c:axId val="588730303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="587459519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="588730303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="588730303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="587459519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19015E1F-2BA0-FC37-E770-BE8DA5764D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,12 +611,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="6" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -446,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -466,7 +676,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -486,7 +696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -506,7 +716,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -526,7 +736,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -559,8 +769,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>